--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4122599.151583876</v>
+        <v>4119581.56118294</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051496</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>74.58350059176986</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>186.7930654727072</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>246.2626096544345</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,10 +950,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>73.9185452699228</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>47.36189168600487</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>40.9813706311317</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>2.684372301327648</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>154.5570019650139</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>221.4211357805158</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>78.63022410830813</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>171.479846328986</v>
       </c>
       <c r="C16" t="n">
-        <v>123.4500799798972</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113184</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>185.9732443074903</v>
+        <v>18.18307242205303</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>102.7360985850902</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>7.496242627249307</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>70.90294072354719</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>118.3594719647991</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.3479015531187</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>106.4917634103452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692808</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415322</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.7819382378954</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593961</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224528</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463275</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373833</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539613</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>106.857156559068</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>87.19282600924311</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.489050745291</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1344.017816594645</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>958.2295639964011</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>547.2436592067936</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>129.2798511049805</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>129.2798511049805</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X2" t="n">
-        <v>2058.628382721103</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y2" t="n">
-        <v>1668.489050745291</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,16 +4422,16 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1918.881264230694</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1566.11260896058</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1192.6468506995</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.6468506995</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4662,25 +4662,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>686.7336603366044</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>686.7336603366044</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>686.7336603366044</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>432.0491721307175</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>432.0491721307175</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>101.7832764526926</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>983.0286321745434</v>
+        <v>1783.124109094749</v>
       </c>
       <c r="C8" t="n">
-        <v>614.0661152341316</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,13 +4799,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2486.002217745671</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2133.233562475557</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.767804214477</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.628472238665</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>598.0446400632119</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>598.0446400632119</v>
+        <v>323.257219162842</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>323.257219162842</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7283310300493</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365134</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227924</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169056</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>540.8181561206347</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,16 +5294,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>799.6537879979912</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C16" t="n">
-        <v>674.9567375132466</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>524.8400981009108</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X16" t="n">
-        <v>1020.446367141521</v>
+        <v>959.9316061372626</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.6537879979912</v>
+        <v>739.1390269937325</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805477</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>656.1762782006413</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C19" t="n">
-        <v>656.1762782006413</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883055</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883055</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1199.98940519297</v>
+        <v>1169.554417215024</v>
       </c>
       <c r="U19" t="n">
-        <v>910.8607664065281</v>
+        <v>880.4257784285825</v>
       </c>
       <c r="V19" t="n">
-        <v>656.1762782006413</v>
+        <v>625.7412902226956</v>
       </c>
       <c r="W19" t="n">
-        <v>656.1762782006413</v>
+        <v>625.7412902226956</v>
       </c>
       <c r="X19" t="n">
-        <v>656.1762782006413</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y19" t="n">
-        <v>656.1762782006413</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,19 +5829,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>410.8745301331628</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>481.4617027208818</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>312.5255197929749</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1491.344308308156</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1267.558893097661</v>
       </c>
       <c r="U22" t="n">
-        <v>964.135741824786</v>
+        <v>978.4302543112195</v>
       </c>
       <c r="V22" t="n">
-        <v>709.4512536188992</v>
+        <v>723.7457661053327</v>
       </c>
       <c r="W22" t="n">
-        <v>709.4512536188992</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="X22" t="n">
-        <v>481.4617027208818</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.4617027208818</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>3079.144181652284</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>3583.957287518663</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>4253.421048821322</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>337.0115451844523</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C25" t="n">
-        <v>337.0115451844523</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6181,16 +6181,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>955.6558230762947</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752259998</v>
+        <v>955.6558230762947</v>
       </c>
       <c r="X25" t="n">
-        <v>557.8041243279824</v>
+        <v>955.6558230762947</v>
       </c>
       <c r="Y25" t="n">
-        <v>337.0115451844523</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,10 +6251,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>688.78598135451</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>519.8497984266031</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570736</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X28" t="n">
-        <v>592.5368061590563</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y28" t="n">
-        <v>371.7442270155261</v>
+        <v>870.4344461847497</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
         <v>559.344147222967</v>
@@ -6604,28 +6604,28 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,16 +6640,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U31" t="n">
         <v>1489.892037025262</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
@@ -6707,25 +6707,25 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,28 +6765,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.771599890051</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
         <v>1661.954360834046</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6889,10 +6889,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3481.793971740472</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.677879852606</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>3300.381331480311</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>3221.288328937959</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>3143.21847248009</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G37" t="n">
-        <v>3043.863241839951</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>2962.265324427935</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>2919.550824089924</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>2999.384087782178</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>3217.020063255134</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>3532.182679494607</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>3871.199993490134</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>4209.194673746026</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>4510.520222979767</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>4818.59956061616</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>4687.499641571753</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>4532.534317401301</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>4312.2257696549</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>4126.361372489054</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>3905.764293492134</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>3746.594833634158</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.62234553067</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>391.6040140015124</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079764</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506738</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083218</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504525</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103143</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982987</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,16 +7351,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7406,49 +7406,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365139</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3481.793971740472</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C43" t="n">
-        <v>3381.677879852606</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D43" t="n">
-        <v>3300.381331480311</v>
+        <v>478.0475988506738</v>
       </c>
       <c r="E43" t="n">
-        <v>3221.288328937959</v>
+        <v>398.9545963083218</v>
       </c>
       <c r="F43" t="n">
-        <v>3143.21847248009</v>
+        <v>320.8847398504525</v>
       </c>
       <c r="G43" t="n">
-        <v>3043.863241839951</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>2962.265324427935</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>2919.550824089924</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>2999.384087782178</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>3217.020063255134</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>3532.182679494607</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>3871.199993490134</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>4209.194673746026</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>4510.520222979767</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>4818.59956061616</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>4687.499641571754</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>4532.534317401301</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>4312.2257696549</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>4126.361372489055</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>3905.764293492135</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>3746.594833634159</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y43" t="n">
-        <v>3594.62234553067</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3717.50992414557</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C46" t="n">
-        <v>3717.50992414557</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D46" t="n">
-        <v>3717.50992414557</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E46" t="n">
-        <v>3717.50992414557</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F46" t="n">
-        <v>3717.50992414557</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>3717.50992414557</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>3567.091915693513</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>4347.940519017357</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>4347.940519017357</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W46" t="n">
-        <v>4347.940519017357</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X46" t="n">
-        <v>4119.950968119339</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="Y46" t="n">
-        <v>3899.158388975809</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7176547498442</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>253.7371603504735</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>20.6378986413543</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,19 +9480,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>43.6598726146251</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>29.47535963978262</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>29.47535963978214</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,16 +10428,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>230.7151863772033</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928342</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498449</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>207.8927742282829</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>8.352133852951255</v>
       </c>
       <c r="C16" t="n">
-        <v>43.79674111873065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>35.5743167508989</v>
+        <v>203.3644886363362</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.87937443312215</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.4245673563539</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>77.71253229466517</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24421,13 +24421,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>133.7781713590289</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.48407862881862</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>42.12370960786714</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>3.562088905204007</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26077,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>131.3918273428517</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885324</v>
@@ -26326,34 +26326,34 @@
         <v>762506.6664885326</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="J2" t="n">
         <v>762506.6664885323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885321</v>
       </c>
       <c r="K2" t="n">
         <v>800515.7256176767</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="O2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>37130.28789562996</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="L4" t="n">
-        <v>37130.28789562995</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37130.28789562996</v>
+        <v>37464.45686275965</v>
       </c>
       <c r="N4" t="n">
-        <v>37130.2878956299</v>
+        <v>37464.45686275965</v>
       </c>
       <c r="O4" t="n">
-        <v>37130.28789562996</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002536</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28670.9754020331</v>
+        <v>-29086.18991150032</v>
       </c>
       <c r="C6" t="n">
-        <v>561296.9038125117</v>
+        <v>560881.689303044</v>
       </c>
       <c r="D6" t="n">
-        <v>561296.9038125116</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="E6" t="n">
-        <v>130647.8034086099</v>
+        <v>130313.6344414807</v>
       </c>
       <c r="F6" t="n">
-        <v>655807.8398855067</v>
+        <v>655473.6709183769</v>
       </c>
       <c r="G6" t="n">
-        <v>655807.839885506</v>
+        <v>655473.6709183768</v>
       </c>
       <c r="H6" t="n">
-        <v>655807.8398855064</v>
+        <v>655473.6709183768</v>
       </c>
       <c r="I6" t="n">
-        <v>655807.8398855062</v>
+        <v>655473.670918377</v>
       </c>
       <c r="J6" t="n">
-        <v>479384.620692913</v>
+        <v>479050.4517257838</v>
       </c>
       <c r="K6" t="n">
-        <v>611164.8197983088</v>
+        <v>610830.6508311792</v>
       </c>
       <c r="L6" t="n">
-        <v>665670.3319020214</v>
+        <v>665336.1629348916</v>
       </c>
       <c r="M6" t="n">
-        <v>530869.3166681841</v>
+        <v>530535.1477010543</v>
       </c>
       <c r="N6" t="n">
-        <v>665670.3319020212</v>
+        <v>665336.1629348916</v>
       </c>
       <c r="O6" t="n">
-        <v>665670.3319020211</v>
+        <v>665336.1629348916</v>
       </c>
       <c r="P6" t="n">
-        <v>655807.8398855062</v>
+        <v>655473.6709183769</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>77.34781565309139</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.9380352057618</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>184.7423106070417</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>119.010282116573</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>253.8337132002121</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>132.4700884959324</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>171.1641683188872</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>362.5885194696799</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>173.1952565051211</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>112.4847882031431</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>30.71650754331222</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>327.2930933377835</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>586.9317337484864</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>331.0622756918206</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>274.915516674262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>509.9122281478575</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>250.7532875461497</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>180.0507982277214</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,13 +37002,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>479.9728913332276</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>255.450348864514</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058693</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4119581.56118294</v>
+        <v>4192956.85016903</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7368670.424756989</v>
+        <v>7270392.649804329</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>262.9405706993869</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>74.58350059176986</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>101.7806877295493</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>246.2626096544345</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>73.05063450793652</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.36189168600487</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>74.09260911231073</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>128.2379488316647</v>
       </c>
       <c r="C8" t="n">
-        <v>2.684372301327648</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>158.3437210266847</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>221.4211357805158</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>66.90445977359174</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.479846328986</v>
+        <v>100.8323929376848</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.6033323262116607</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>18.18307242205303</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2132,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7.496242627249307</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.6467665484527</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>24.08529001658718</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>118.3594719647991</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>104.7725661050853</v>
       </c>
       <c r="D28" t="n">
-        <v>106.4917634103452</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898712</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692846</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329054</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373689</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789542</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463128</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415322</v>
+        <v>5.269848553896213</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287485</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>85.14958321356384</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378954</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689361</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>119.740670991701</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463275</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>155.7575958920255</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898712</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857165</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692846</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329054</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373833</v>
+        <v>73.01256583738432</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789542</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463128</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>110.0663244487791</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.19282600924311</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.283515201396</v>
+        <v>821.0691186598713</v>
       </c>
       <c r="C2" t="n">
-        <v>1702.283515201396</v>
+        <v>821.0691186598713</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.017816594645</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>958.2295639964011</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>547.2436592067936</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>129.2798511049805</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>129.2798511049805</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.422847177208</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.283515201396</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="3">
@@ -4425,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1190.010945960184</v>
+        <v>1408.137349737077</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1039.174832796665</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>680.9091341899145</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>295.1208815916703</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.010945960184</v>
+        <v>1794.737189801198</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X7" t="n">
-        <v>322.5758555962227</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y7" t="n">
-        <v>101.7832764526926</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783.124109094749</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y8" t="n">
-        <v>2169.72394915887</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,13 +4889,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>323.257219162842</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5024,31 +5026,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,10 +5059,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5233,16 +5235,16 @@
         <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7973538578533</v>
       </c>
     </row>
     <row r="14">
@@ -5258,22 +5260,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5294,22 +5296,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.9270610048577</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X16" t="n">
-        <v>959.9316061372626</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.1390269937325</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5494,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>397.7517393246783</v>
+        <v>416.118479144934</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>416.118479144934</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>266.0018397325982</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>266.0018397325982</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>266.0018397325982</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.82651805241883</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.82651805241883</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5701,22 +5703,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1169.554417215024</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>880.4257784285825</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>625.7412902226956</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W19" t="n">
-        <v>625.7412902226956</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X19" t="n">
-        <v>397.7517393246783</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y19" t="n">
-        <v>397.7517393246783</v>
+        <v>416.118479144934</v>
       </c>
     </row>
     <row r="20">
@@ -5747,52 +5749,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5817,16 +5819,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256434</v>
@@ -5838,16 +5840,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S22" t="n">
-        <v>1491.344308308156</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T22" t="n">
-        <v>1267.558893097661</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U22" t="n">
-        <v>978.4302543112195</v>
+        <v>4571.725934227849</v>
       </c>
       <c r="V22" t="n">
-        <v>723.7457661053327</v>
+        <v>4317.041446021963</v>
       </c>
       <c r="W22" t="n">
-        <v>434.3285960683721</v>
+        <v>4317.041446021963</v>
       </c>
       <c r="X22" t="n">
-        <v>434.3285960683721</v>
+        <v>4106.287136377061</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.3285960683721</v>
+        <v>4106.287136377061</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.8632439327646</v>
+        <v>677.999939105308</v>
       </c>
       <c r="C25" t="n">
-        <v>565.9270610048577</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>955.6558230762947</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W25" t="n">
-        <v>955.6558230762947</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X25" t="n">
-        <v>955.6558230762947</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.8632439327646</v>
+        <v>677.999939105308</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775518</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>688.78598135451</v>
+        <v>3826.938868600405</v>
       </c>
       <c r="C28" t="n">
-        <v>519.8497984266031</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.423997082767</v>
+        <v>4236.576884328662</v>
       </c>
       <c r="X28" t="n">
-        <v>870.4344461847497</v>
+        <v>4008.587333430645</v>
       </c>
       <c r="Y28" t="n">
-        <v>870.4344461847497</v>
+        <v>4008.587333430645</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6454,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>166.5495793176475</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>315.6192635197074</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504511</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103128</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1493.593191210532</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1293.673181126085</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1293.673181126085</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1293.673181126085</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1293.673181126085</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045204</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010313</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6700,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6728,22 +6730,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>3138.955990222746</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>3446.276123502707</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>3899.235428472199</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774858</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,46 +6928,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>3778.208216256919</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>3609.272033329012</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>4226.990346298467</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>4226.990346298467</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>3999.000795400449</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>3778.208216256919</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7190,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108341</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229683</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506738</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083218</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504525</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103143</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982987</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1230.510262178288</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>975.825773972401</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>975.825773972401</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045217</v>
+        <v>747.8362230743836</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010327</v>
+        <v>527.0436439308535</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,22 +7478,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
         <v>891.4406401619858</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108341</v>
+        <v>727.722798873107</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229683</v>
+        <v>727.722798873107</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506738</v>
+        <v>727.722798873107</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083218</v>
+        <v>579.8097052907139</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504525</v>
+        <v>432.9197577928035</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045217</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010327</v>
+        <v>909.3712637033467</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>376.9270045185177</v>
+        <v>3739.626168222636</v>
       </c>
       <c r="C46" t="n">
-        <v>376.9270045185177</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="D46" t="n">
-        <v>376.9270045185177</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185177</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>4438.681353987854</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>4438.681353987854</v>
       </c>
       <c r="V46" t="n">
-        <v>1164.055751909234</v>
+        <v>4438.681353987854</v>
       </c>
       <c r="W46" t="n">
-        <v>874.6385818722729</v>
+        <v>4149.264183950893</v>
       </c>
       <c r="X46" t="n">
-        <v>646.6490309742555</v>
+        <v>3921.274633052876</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.5754693487575</v>
+        <v>3921.274633052876</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>113.6026921294544</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>253.7371603504738</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9486,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P24" t="n">
-        <v>43.6598726146251</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9954,22 +9956,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>28.1226370626304</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>124.340078086323</v>
+        <v>124.3400780863223</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>295.3773510571274</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>20.63789864135472</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9275204083456</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.352133852951255</v>
+        <v>78.99958724425247</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>109.8159131380603</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>203.3644886363362</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>190.4245673563539</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>17.06288884058449</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>143.1615310820407</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.7781713590289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>62.47425499354257</v>
       </c>
       <c r="D28" t="n">
-        <v>42.12370960786714</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>104.6945038498966</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>94.68239696837345</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>132.396972332127</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>130.4797565065518</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>93.48100262599327</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>111.4812366096101</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>131.3918273428517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.918524312</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650565.2475756831</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176762</v>
@@ -26323,37 +26325,37 @@
         <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="G2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="H2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>762506.6664885324</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885327</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176765</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176766</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176765</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>15045.66962143915</v>
+      </c>
+      <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="K4" t="n">
-        <v>37464.45686275959</v>
-      </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275965</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275965</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002536</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150032</v>
+        <v>-29086.18991150023</v>
       </c>
       <c r="C6" t="n">
-        <v>560881.689303044</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="D6" t="n">
         <v>560881.6893030441</v>
       </c>
       <c r="E6" t="n">
-        <v>130313.6344414807</v>
+        <v>130313.6344414806</v>
       </c>
       <c r="F6" t="n">
-        <v>655473.6709183769</v>
+        <v>655473.6709183771</v>
       </c>
       <c r="G6" t="n">
-        <v>655473.6709183768</v>
+        <v>655473.670918377</v>
       </c>
       <c r="H6" t="n">
         <v>655473.6709183768</v>
       </c>
       <c r="I6" t="n">
+        <v>655473.6709183768</v>
+      </c>
+      <c r="J6" t="n">
+        <v>479050.4517257835</v>
+      </c>
+      <c r="K6" t="n">
         <v>655473.670918377</v>
       </c>
-      <c r="J6" t="n">
-        <v>479050.4517257838</v>
-      </c>
-      <c r="K6" t="n">
-        <v>610830.6508311792</v>
-      </c>
       <c r="L6" t="n">
-        <v>665336.1629348916</v>
+        <v>655473.6709183764</v>
       </c>
       <c r="M6" t="n">
-        <v>530535.1477010543</v>
+        <v>520672.6556845392</v>
       </c>
       <c r="N6" t="n">
-        <v>665336.1629348916</v>
+        <v>655473.6709183767</v>
       </c>
       <c r="O6" t="n">
-        <v>665336.1629348916</v>
+        <v>655473.6709183765</v>
       </c>
       <c r="P6" t="n">
-        <v>655473.6709183769</v>
+        <v>655473.670918377</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26697,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26747,7 +26749,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91.7424709212961</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>77.34781565309139</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27585,25 +27587,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>184.7423106070417</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>119.010282116573</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>333.8254112337749</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.4700884959324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27791,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>212.189265129667</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>254.4958928318159</v>
       </c>
       <c r="C8" t="n">
-        <v>362.5885194696799</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>21.48825915525256</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>30.71650754331222</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,16 +35503,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>586.9317337484866</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P24" t="n">
-        <v>250.7532875461497</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>70.03281601753706</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520623</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>457.5346514843358</v>
+        <v>457.5346514843351</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178376</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,16 +37396,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>628.5719244551402</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>227.7313135728794</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4192956.85016903</v>
+        <v>4185939.835277317</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262.9405706993869</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>279.5998607358603</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>73.05063450793652</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>79.27586724417334</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>74.09260911231073</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128.2379488316647</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231285</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.3437210266847</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.90445977359174</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>97.12772045570685</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.8323929376848</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>5.107731335945625</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6033323262116607</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6467665484527</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>24.08529001658718</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.7725661050853</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>183.6274390026643</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.269848553896213</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.14958321356384</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>119.740670991701</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>76.56542964295322</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>155.7575958920255</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>73.01256583738432</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0663244487791</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821.0691186598713</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="C2" t="n">
-        <v>821.0691186598713</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>663.5618035377558</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.808290699805</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y2" t="n">
-        <v>1207.668958723993</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791651</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.137349737077</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1039.174832796665</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>680.9091341899145</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>295.1208815916703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2385.866280282913</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.737189801198</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.654191907093</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.7689125078493</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5044,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,25 +5123,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013834</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X13" t="n">
-        <v>385.5899330013834</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y13" t="n">
-        <v>164.7973538578533</v>
+        <v>195.3259000014039</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5311,7 +5311,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.5778132641556</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
         <v>208.7516828383384</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>847.2212943649431</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>626.428715221413</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>266.0018397325982</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>266.0018397325982</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>266.0018397325982</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.82651805241883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.82651805241883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429513</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>644.1080300429513</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,10 +5749,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5761,43 +5761,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,16 +5819,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256434</v>
@@ -5840,16 +5840,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1912.313820009359</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014291</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.725934227849</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4317.041446021963</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4317.041446021963</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>4106.287136377061</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>4106.287136377061</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256434</v>
@@ -6074,13 +6074,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>677.999939105308</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6713633309776</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>898.7925182488382</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>898.7925182488382</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>898.7925182488382</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>677.999939105308</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3826.938868600405</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>3721.107993746784</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>3721.107993746784</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>3721.107993746784</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576117</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4525.994054365623</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4525.994054365623</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>4525.994054365623</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>4236.576884328662</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X28" t="n">
-        <v>4008.587333430645</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y28" t="n">
-        <v>4008.587333430645</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>166.5495793176475</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>315.6192635197074</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>929.516333276596</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1236.836466556558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1493.593191210532</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1293.673181126085</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1293.673181126085</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1293.673181126085</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1293.673181126085</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1004.256011089124</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222746</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3446.276123502707</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3899.235428472199</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.9958217162123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>981.7980808734433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3778.208216256919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.272033329012</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4226.990346298467</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4226.990346298467</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3999.000795400449</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3778.208216256919</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,13 +7210,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.0436439308535</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>527.0436439308535</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="U40" t="n">
-        <v>1230.510262178288</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V40" t="n">
-        <v>975.825773972401</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W40" t="n">
-        <v>975.825773972401</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X40" t="n">
-        <v>747.8362230743836</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.0436439308535</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.722798873107</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>727.722798873107</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>727.722798873107</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>579.8097052907139</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>432.9197577928035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>909.3712637033467</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>909.3712637033467</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>909.3712637033467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.3712637033467</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3739.626168222636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491671</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4438.681353987854</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4438.681353987854</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4438.681353987854</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4149.264183950893</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>3921.274633052876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3921.274633052876</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>113.6026921294544</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>253.7371603504738</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>127.6461250100651</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>213.260391180663</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>28.1226370626304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>124.3400780863223</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>199.6230805871097</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>295.3773510571274</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>20.63789864135472</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.9275204083456</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>51.78610791182928</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.99958724425247</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.4769220161492</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>109.8159131380603</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>17.06288884058449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>143.1615310820407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.47425499354257</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>42.08221638637286</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>104.6945038498966</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.68239696837345</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>132.396972332127</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>121.35538034065</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>130.4797565065518</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>93.48100262599327</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>111.4812366096101</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="15">
@@ -26316,31 +26316,31 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.666488532</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="L2" t="n">
         <v>762506.6664885322</v>
@@ -26349,13 +26349,13 @@
         <v>762506.6664885322</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26481,28 +26481,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150023</v>
+        <v>-29086.18991150011</v>
       </c>
       <c r="C6" t="n">
-        <v>560881.6893030441</v>
+        <v>560881.6893030442</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030441</v>
+        <v>560881.6893030442</v>
       </c>
       <c r="E6" t="n">
-        <v>130313.6344414806</v>
+        <v>129339.0431817589</v>
       </c>
       <c r="F6" t="n">
-        <v>655473.6709183771</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="G6" t="n">
-        <v>655473.670918377</v>
+        <v>654499.0796586546</v>
       </c>
       <c r="H6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.0796586552</v>
       </c>
       <c r="I6" t="n">
-        <v>655473.6709183768</v>
+        <v>654499.079658655</v>
       </c>
       <c r="J6" t="n">
-        <v>479050.4517257835</v>
+        <v>478075.8604660621</v>
       </c>
       <c r="K6" t="n">
-        <v>655473.670918377</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="L6" t="n">
-        <v>655473.6709183764</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="M6" t="n">
-        <v>520672.6556845392</v>
+        <v>519698.0644248177</v>
       </c>
       <c r="N6" t="n">
-        <v>655473.6709183767</v>
+        <v>654499.0796586551</v>
       </c>
       <c r="O6" t="n">
-        <v>655473.6709183765</v>
+        <v>654499.0796586549</v>
       </c>
       <c r="P6" t="n">
-        <v>655473.670918377</v>
+        <v>654499.0796586549</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,7 +26749,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.7424709212961</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>134.1843092849347</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>117.5062691663784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>333.8254112337749</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>248.4763912259615</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27824,13 +27824,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>212.189265129667</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.4958928318159</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858298</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.48825915525256</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35503,16 +35503,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>320.696107060979</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35974,13 +35974,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>586.9317337484866</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>420.3538061121876</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
@@ -36676,22 +36676,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70.03281601753706</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>457.5346514843351</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>350.1985191750489</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,13 +37396,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,19 +37633,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>628.5719244551402</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>227.7313135728794</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4185939.835277317</v>
+        <v>4190879.09812635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7270392.649804329</v>
+        <v>7270392.64980433</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>279.5998607358603</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.652676009751203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>79.27586724417334</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>276.5855197167248</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231285</v>
+        <v>133.5065782393455</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295491</v>
+        <v>27.45797858609776</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>97.12772045570685</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>93.31268305691076</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.107731335945625</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>183.6274390026643</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>76.56542964295322</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1074.547708327363</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>1074.547708327363</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="D2" t="n">
-        <v>1074.547708327363</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="E2" t="n">
-        <v>1074.547708327363</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="F2" t="n">
-        <v>663.5618035377558</v>
+        <v>805.8213846434992</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>387.8575765416861</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>60.6628565776889</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1461.147548391485</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2385.866280282913</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700466</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718023</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.54400078133</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.3259000014039</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>195.3259000014039</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>195.3259000014039</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>195.3259000014039</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>195.3259000014039</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>195.3259000014039</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429513</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>644.1080300429513</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>416.118479144934</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.3259000014039</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5284,19 +5284,19 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1404.661035146881</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1180.875619936387</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>891.7469811499454</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5603,13 +5603,13 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494011</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5952,10 +5952,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,34 +6001,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6463,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6654,13 +6654,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7122,16 +7122,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,34 +7168,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1421.577452736738</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1421.577452736738</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1132.448813950296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>877.7643257444088</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>877.7643257444088</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7596,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7627,22 +7627,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>127.6461250100651</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>51.78610791182928</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>104.6081269266925</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.4769220161492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.51615797628583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>30.90698584635157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>42.08221638637286</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>121.35538034065</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243122</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620352.918524312</v>
+        <v>620352.9185243121</v>
       </c>
     </row>
     <row r="9">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176763</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="F2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="I2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="G2" t="n">
-        <v>762506.666488532</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885323</v>
-      </c>
       <c r="J2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="N2" t="n">
         <v>762506.6664885324</v>
@@ -26355,7 +26355,7 @@
         <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26487,28 +26487,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150011</v>
+        <v>-29086.18991150035</v>
       </c>
       <c r="C6" t="n">
-        <v>560881.6893030442</v>
+        <v>560881.6893030443</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030442</v>
+        <v>560881.6893030443</v>
       </c>
       <c r="E6" t="n">
-        <v>129339.0431817589</v>
+        <v>130216.1753155085</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924045</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.0796586546</v>
+        <v>655376.2117924045</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.0796586552</v>
+        <v>655376.2117924049</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.079658655</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="J6" t="n">
-        <v>478075.8604660621</v>
+        <v>478952.9925998115</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924046</v>
       </c>
       <c r="L6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924046</v>
       </c>
       <c r="M6" t="n">
-        <v>519698.0644248177</v>
+        <v>520575.1965585674</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.0796586551</v>
+        <v>655376.2117924046</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924044</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.0796586549</v>
+        <v>655376.2117924045</v>
       </c>
     </row>
   </sheetData>
@@ -26755,28 +26755,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>134.1843092849347</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>145.2786402351101</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>248.4763912259615</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>72.65544900068818</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858298</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8347852886633</v>
+        <v>121.1574944321146</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35971,7 +35971,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7395399415897</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
